--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_46_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_46_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.179324333433997, 2.7836485662448522]</t>
+          <t>[2.182303467000132, 2.7806694326787174]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.21504724517894935, 0.5320793983256022]</t>
+          <t>[0.21503230724860378, 0.5320943362559478]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.128832298642358e-05</v>
+        <v>2.131965400997693e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>2.128832298642358e-05</v>
+        <v>2.131965400997693e-05</v>
       </c>
       <c r="W2" t="n">
         <v>23.09713713713788</v>
